--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H2">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>20.054528398365</v>
+        <v>422.0051655661053</v>
       </c>
       <c r="R2">
-        <v>180.490755585285</v>
+        <v>3798.046490094948</v>
       </c>
       <c r="S2">
-        <v>0.0001363979165543063</v>
+        <v>0.001834232707124686</v>
       </c>
       <c r="T2">
-        <v>0.0001363979165543064</v>
+        <v>0.001834232707124686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H3">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I3">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J3">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>1640.038264349744</v>
+        <v>6580.55169140947</v>
       </c>
       <c r="R3">
-        <v>14760.3443791477</v>
+        <v>59224.96522268523</v>
       </c>
       <c r="S3">
-        <v>0.01115447832445082</v>
+        <v>0.02860216918699581</v>
       </c>
       <c r="T3">
-        <v>0.01115447832445083</v>
+        <v>0.02860216918699581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H4">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I4">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J4">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>1522.733112810046</v>
+        <v>7785.972718616556</v>
       </c>
       <c r="R4">
-        <v>13704.59801529042</v>
+        <v>70073.75446754899</v>
       </c>
       <c r="S4">
-        <v>0.01035664464054298</v>
+        <v>0.03384149527674418</v>
       </c>
       <c r="T4">
-        <v>0.01035664464054298</v>
+        <v>0.03384149527674418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H5">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I5">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J5">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>263.7479378944088</v>
+        <v>743.0179742053888</v>
       </c>
       <c r="R5">
-        <v>2373.73144104968</v>
+        <v>6687.161767848499</v>
       </c>
       <c r="S5">
-        <v>0.001793842692766831</v>
+        <v>0.003229505184944384</v>
       </c>
       <c r="T5">
-        <v>0.001793842692766832</v>
+        <v>0.003229505184944384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H6">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I6">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J6">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>614.4198301551138</v>
+        <v>2518.604253934844</v>
       </c>
       <c r="R6">
-        <v>5529.778471396025</v>
+        <v>22667.43828541359</v>
       </c>
       <c r="S6">
-        <v>0.004178885838554088</v>
+        <v>0.01094703732517938</v>
       </c>
       <c r="T6">
-        <v>0.00417888583855409</v>
+        <v>0.01094703732517938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H7">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I7">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J7">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>1441.352076872827</v>
+        <v>11137.66625710005</v>
       </c>
       <c r="R7">
-        <v>12972.16869185544</v>
+        <v>100238.9963139005</v>
       </c>
       <c r="S7">
-        <v>0.009803143529553362</v>
+        <v>0.0484095300170248</v>
       </c>
       <c r="T7">
-        <v>0.009803143529553363</v>
+        <v>0.0484095300170248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>341.735291</v>
       </c>
       <c r="I8">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J8">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>199.237484152947</v>
+        <v>1044.883902349889</v>
       </c>
       <c r="R8">
-        <v>1793.137357376523</v>
+        <v>9403.955121149003</v>
       </c>
       <c r="S8">
-        <v>0.001355084357914852</v>
+        <v>0.004541556324949825</v>
       </c>
       <c r="T8">
-        <v>0.001355084357914853</v>
+        <v>0.004541556324949824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>341.735291</v>
       </c>
       <c r="I9">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J9">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
-        <v>16293.43214723757</v>
+        <v>16293.43214723756</v>
       </c>
       <c r="R9">
         <v>146640.8893251381</v>
       </c>
       <c r="S9">
-        <v>0.1108173752210173</v>
+        <v>0.07081891074885063</v>
       </c>
       <c r="T9">
-        <v>0.1108173752210174</v>
+        <v>0.07081891074885061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>341.735291</v>
       </c>
       <c r="I10">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J10">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>15128.0303583401</v>
+        <v>19278.05207527362</v>
       </c>
       <c r="R10">
-        <v>136152.2732250609</v>
+        <v>173502.4686774625</v>
       </c>
       <c r="S10">
-        <v>0.1028910668682747</v>
+        <v>0.08379147112733799</v>
       </c>
       <c r="T10">
-        <v>0.1028910668682747</v>
+        <v>0.08379147112733798</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>341.735291</v>
       </c>
       <c r="I11">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J11">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>2620.2797968011</v>
+        <v>1839.710941363398</v>
       </c>
       <c r="R11">
-        <v>23582.51817120991</v>
+        <v>16557.39847227058</v>
       </c>
       <c r="S11">
-        <v>0.01782144650692207</v>
+        <v>0.007996248045393404</v>
       </c>
       <c r="T11">
-        <v>0.01782144650692207</v>
+        <v>0.007996248045393402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>341.735291</v>
       </c>
       <c r="I12">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J12">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>6104.130635341499</v>
+        <v>6236.058835432038</v>
       </c>
       <c r="R12">
-        <v>54937.1757180735</v>
+        <v>56124.52951888834</v>
       </c>
       <c r="S12">
-        <v>0.04151634406440464</v>
+        <v>0.02710484139254345</v>
       </c>
       <c r="T12">
-        <v>0.04151634406440464</v>
+        <v>0.02710484139254345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>341.735291</v>
       </c>
       <c r="I13">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J13">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>14319.52703501019</v>
+        <v>27576.83822703447</v>
       </c>
       <c r="R13">
-        <v>128875.7433150917</v>
+        <v>248191.5440433102</v>
       </c>
       <c r="S13">
-        <v>0.09739215078115172</v>
+        <v>0.1198618945037284</v>
       </c>
       <c r="T13">
-        <v>0.09739215078115174</v>
+        <v>0.1198618945037284</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H14">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I14">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J14">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>108.003482975862</v>
+        <v>566.8792111440119</v>
       </c>
       <c r="R14">
-        <v>972.0313467827579</v>
+        <v>5101.912900296108</v>
       </c>
       <c r="S14">
-        <v>0.0007345697573081346</v>
+        <v>0.002463923370877576</v>
       </c>
       <c r="T14">
-        <v>0.0007345697573081348</v>
+        <v>0.002463923370877575</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H15">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I15">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J15">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>8832.411375871641</v>
+        <v>8839.649976119181</v>
       </c>
       <c r="R15">
-        <v>79491.70238284476</v>
+        <v>79556.84978507263</v>
       </c>
       <c r="S15">
-        <v>0.06007234305832217</v>
+        <v>0.03842127165429662</v>
       </c>
       <c r="T15">
-        <v>0.06007234305832217</v>
+        <v>0.03842127165429661</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H16">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I16">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J16">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>8200.665533454743</v>
+        <v>10458.89110574587</v>
       </c>
       <c r="R16">
-        <v>73805.9898010927</v>
+        <v>94130.01995171281</v>
       </c>
       <c r="S16">
-        <v>0.05577561690321921</v>
+        <v>0.04545925432140106</v>
       </c>
       <c r="T16">
-        <v>0.05577561690321921</v>
+        <v>0.04545925432140106</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H17">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I17">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J17">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>1420.412156020576</v>
+        <v>998.095467666481</v>
       </c>
       <c r="R17">
-        <v>12783.70940418518</v>
+        <v>8982.859208998329</v>
       </c>
       <c r="S17">
-        <v>0.009660723746832771</v>
+        <v>0.004338191806659276</v>
       </c>
       <c r="T17">
-        <v>0.009660723746832772</v>
+        <v>0.004338191806659275</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H18">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I18">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J18">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>3308.95248933403</v>
+        <v>3383.239138173267</v>
       </c>
       <c r="R18">
-        <v>29780.57240400627</v>
+        <v>30449.15224355941</v>
       </c>
       <c r="S18">
-        <v>0.02250535223551523</v>
+        <v>0.01470514673662129</v>
       </c>
       <c r="T18">
-        <v>0.02250535223551523</v>
+        <v>0.01470514673662129</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H19">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I19">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J19">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>7762.388693690209</v>
+        <v>14961.21843281357</v>
       </c>
       <c r="R19">
-        <v>69861.49824321188</v>
+        <v>134650.9658953221</v>
       </c>
       <c r="S19">
-        <v>0.05279474163004341</v>
+        <v>0.06502848407338904</v>
       </c>
       <c r="T19">
-        <v>0.05279474163004341</v>
+        <v>0.06502848407338904</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H20">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I20">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J20">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>27.478988701749</v>
+        <v>99.06968077571069</v>
       </c>
       <c r="R20">
-        <v>247.310898315741</v>
+        <v>891.6271269813961</v>
       </c>
       <c r="S20">
-        <v>0.0001868942880872461</v>
+        <v>0.0004306033754810642</v>
       </c>
       <c r="T20">
-        <v>0.0001868942880872462</v>
+        <v>0.000430603375481064</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H21">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I21">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J21">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>2247.20282827378</v>
+        <v>1544.846387179772</v>
       </c>
       <c r="R21">
-        <v>20224.82545446402</v>
+        <v>13903.61748461794</v>
       </c>
       <c r="S21">
-        <v>0.01528401853999607</v>
+        <v>0.006714628165859905</v>
       </c>
       <c r="T21">
-        <v>0.01528401853999607</v>
+        <v>0.006714628165859904</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H22">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I22">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J22">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>2086.469707564788</v>
+        <v>1827.830308017652</v>
       </c>
       <c r="R22">
-        <v>18778.22736808309</v>
+        <v>16450.47277215886</v>
       </c>
       <c r="S22">
-        <v>0.01419081593006754</v>
+        <v>0.007944609231363984</v>
       </c>
       <c r="T22">
-        <v>0.01419081593006754</v>
+        <v>0.007944609231363982</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H23">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I23">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J23">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>361.391026582352</v>
+        <v>174.4304561210693</v>
       </c>
       <c r="R23">
-        <v>3252.519239241168</v>
+        <v>1569.874105089623</v>
       </c>
       <c r="S23">
-        <v>0.002457947756641014</v>
+        <v>0.0007581567095434628</v>
       </c>
       <c r="T23">
-        <v>0.002457947756641014</v>
+        <v>0.0007581567095434627</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H24">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I24">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J24">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>841.8864425821849</v>
+        <v>591.2660313125625</v>
       </c>
       <c r="R24">
-        <v>7576.977983239664</v>
+        <v>5321.394281813063</v>
       </c>
       <c r="S24">
-        <v>0.00572596644820073</v>
+        <v>0.002569919948232069</v>
       </c>
       <c r="T24">
-        <v>0.005725966448200731</v>
+        <v>0.002569919948232068</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H25">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I25">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J25">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>1974.960300680016</v>
+        <v>2614.671882504393</v>
       </c>
       <c r="R25">
-        <v>17774.64270612015</v>
+        <v>23532.04694253953</v>
       </c>
       <c r="S25">
-        <v>0.01343240114846992</v>
+        <v>0.01136459237141156</v>
       </c>
       <c r="T25">
-        <v>0.01343240114846992</v>
+        <v>0.01136459237141155</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H26">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I26">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J26">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>70.285483839192</v>
+        <v>349.413884674036</v>
       </c>
       <c r="R26">
-        <v>632.569354552728</v>
+        <v>3144.724962066324</v>
       </c>
       <c r="S26">
-        <v>0.0004780363501571419</v>
+        <v>0.001518716897061808</v>
       </c>
       <c r="T26">
-        <v>0.0004780363501571421</v>
+        <v>0.001518716897061808</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H27">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I27">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J27">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>5747.873030712019</v>
+        <v>5448.597120154208</v>
       </c>
       <c r="R27">
-        <v>51730.85727640817</v>
+        <v>49037.37408138787</v>
       </c>
       <c r="S27">
-        <v>0.03909331051991845</v>
+        <v>0.02368216282927633</v>
       </c>
       <c r="T27">
-        <v>0.03909331051991848</v>
+        <v>0.02368216282927632</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H28">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I28">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J28">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>5336.75145412737</v>
+        <v>6446.667471305435</v>
       </c>
       <c r="R28">
-        <v>48030.76308714634</v>
+        <v>58020.00724174891</v>
       </c>
       <c r="S28">
-        <v>0.03629712776344739</v>
+        <v>0.0280202454677606</v>
       </c>
       <c r="T28">
-        <v>0.03629712776344739</v>
+        <v>0.0280202454677606</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H29">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I29">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J29">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>924.3623713439715</v>
+        <v>615.2076276162763</v>
       </c>
       <c r="R29">
-        <v>8319.261342095744</v>
+        <v>5536.868648546487</v>
       </c>
       <c r="S29">
-        <v>0.006286914311223339</v>
+        <v>0.002673981373504287</v>
       </c>
       <c r="T29">
-        <v>0.006286914311223341</v>
+        <v>0.002673981373504287</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H30">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I30">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J30">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>2153.368764651035</v>
+        <v>2085.366171154301</v>
       </c>
       <c r="R30">
-        <v>19380.31888185932</v>
+        <v>18768.29554038871</v>
       </c>
       <c r="S30">
-        <v>0.01464581999821385</v>
+        <v>0.009063981082628285</v>
       </c>
       <c r="T30">
-        <v>0.01464581999821386</v>
+        <v>0.009063981082628283</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H31">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I31">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J31">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>5051.533802903596</v>
+        <v>9221.818950665542</v>
       </c>
       <c r="R31">
-        <v>45463.80422613236</v>
+        <v>82996.37055598987</v>
       </c>
       <c r="S31">
-        <v>0.03435726198257929</v>
+        <v>0.04008235756024965</v>
       </c>
       <c r="T31">
-        <v>0.0343572619825793</v>
+        <v>0.04008235756024964</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H32">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I32">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J32">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>110.822185354473</v>
+        <v>844.1864387210627</v>
       </c>
       <c r="R32">
-        <v>997.399668190257</v>
+        <v>7597.677948489563</v>
       </c>
       <c r="S32">
-        <v>0.0007537407457348958</v>
+        <v>0.00366923086056568</v>
       </c>
       <c r="T32">
-        <v>0.000753740745734896</v>
+        <v>0.003669230860565679</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H33">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I33">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J33">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>9062.921895237061</v>
+        <v>13163.84952240739</v>
       </c>
       <c r="R33">
-        <v>81566.29705713355</v>
+        <v>118474.6457016665</v>
       </c>
       <c r="S33">
-        <v>0.06164012635198753</v>
+        <v>0.05721627438677645</v>
       </c>
       <c r="T33">
-        <v>0.06164012635198755</v>
+        <v>0.05721627438677643</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H34">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I34">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J34">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>8414.688589086276</v>
+        <v>15575.194612822</v>
       </c>
       <c r="R34">
-        <v>75732.19730177648</v>
+        <v>140176.751515398</v>
       </c>
       <c r="S34">
-        <v>0.05723126314444957</v>
+        <v>0.06769711299705689</v>
       </c>
       <c r="T34">
-        <v>0.05723126314444957</v>
+        <v>0.06769711299705686</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H35">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I35">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J35">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>1457.482433871504</v>
+        <v>1486.346018321262</v>
       </c>
       <c r="R35">
-        <v>13117.34190484354</v>
+        <v>13377.11416489136</v>
       </c>
       <c r="S35">
-        <v>0.009912851773207505</v>
+        <v>0.006460358079390245</v>
       </c>
       <c r="T35">
-        <v>0.009912851773207505</v>
+        <v>0.006460358079390243</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H36">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I36">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J36">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>3395.310373315245</v>
+        <v>5038.259550270644</v>
       </c>
       <c r="R36">
-        <v>30557.7933598372</v>
+        <v>45344.3359524358</v>
       </c>
       <c r="S36">
-        <v>0.02309270264431549</v>
+        <v>0.02189864297441192</v>
       </c>
       <c r="T36">
-        <v>0.0230927026443155</v>
+        <v>0.02189864297441191</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H37">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I37">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J37">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>7964.973488844434</v>
+        <v>22279.98038988983</v>
       </c>
       <c r="R37">
-        <v>71684.7613995999</v>
+        <v>200519.8235090085</v>
       </c>
       <c r="S37">
-        <v>0.0541725922299543</v>
+        <v>0.09683926188536419</v>
       </c>
       <c r="T37">
-        <v>0.0541725922299543</v>
+        <v>0.09683926188536417</v>
       </c>
     </row>
   </sheetData>
